--- a/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_3_Resultats_2022_06122022.xlsx
+++ b/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_3_Resultats_2022_06122022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="203">
   <si>
     <t>type</t>
   </si>
@@ -132,10 +132,10 @@
     <t>d_manual_code</t>
   </si>
   <si>
-    <t xml:space="preserve">5.Saisir le code barre </t>
-  </si>
-  <si>
-    <t>Exemple "PreTas0001"</t>
+    <t>5.Saisir le code barre</t>
+  </si>
+  <si>
+    <t>Exemple "FL22120001"</t>
   </si>
   <si>
     <t>string-length(.)=10 and regex(.,'^[a-zA-Z]{6}[0-9]{4}$')</t>
@@ -540,7 +540,7 @@
     <t>B. Ligne témoin brisées/partielle</t>
   </si>
   <si>
-    <t>C_Difficulte_d’absorption_echantillon</t>
+    <t>C_Difficulte_d_absorption_echantillon</t>
   </si>
   <si>
     <t>C. Difficulté d’absorption d’échantillon</t>
@@ -618,10 +618,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(BF - Dec 2022) Pré TAS FL - 3. Formulaire Résultats V0</t>
-  </si>
-  <si>
-    <t>bf_lf_pretas_3_Resultats_2022_06122022</t>
+    <t>(BF - Dec 2022) Pré TAS FL - 3. Formulaire Résultats V1</t>
+  </si>
+  <si>
+    <t>bf_lf_pretas_3_Resultats_2022_06122022_v1</t>
   </si>
   <si>
     <t>French</t>
@@ -633,11 +633,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,12 +697,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,18 +725,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -740,8 +754,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,52 +785,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,14 +808,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -843,7 +852,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +918,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,13 +942,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,31 +978,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,91 +1008,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,15 +1062,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1083,13 +1077,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,174 +1131,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,7 +1337,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1371,11 +1380,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1691,10 +1702,10 @@
   <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25"/>
@@ -1702,6 +1713,7 @@
     <col min="1" max="1" width="31.1" customWidth="1"/>
     <col min="2" max="2" width="20.4166666666667" customWidth="1"/>
     <col min="3" max="3" width="49.6833333333333" customWidth="1"/>
+    <col min="4" max="4" width="36.125" customWidth="1"/>
     <col min="6" max="6" width="24.6833333333333" customWidth="1"/>
     <col min="7" max="7" width="20.6833333333333" customWidth="1"/>
     <col min="8" max="8" width="15.6833333333333" customWidth="1"/>
@@ -1869,7 +1881,7 @@
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1895,7 +1907,7 @@
       <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1911,7 +1923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:6">
+    <row r="10" s="3" customFormat="1" spans="1:10">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
@@ -1924,6 +1936,9 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
+      <c r="J10" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:10">
       <c r="A11" s="3" t="s">
@@ -2130,7 +2145,9 @@
       <c r="C21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
@@ -2214,10 +2231,10 @@
   <sheetPr/>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3143,13 +3160,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="23.1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_3_Resultats_2022_06122022.xlsx
+++ b/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_3_Resultats_2022_06122022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <t>Exemple "FL22120001"</t>
   </si>
   <si>
-    <t>string-length(.)=10 and regex(.,'^[a-zA-Z]{6}[0-9]{4}$')</t>
+    <t xml:space="preserve">string-length(.)=10 </t>
   </si>
   <si>
     <t>Paramétrer pour prendre 10 caractère. Doit avoir le format Pretas0001</t>
@@ -153,7 +153,7 @@
     <t>6.Saisir le code barre à nouveau</t>
   </si>
   <si>
-    <t>string-length(.)=10 and . =  /data/d_manual_code</t>
+    <t xml:space="preserve"> . = ${d_manual_code}</t>
   </si>
   <si>
     <t>Le code répété doit être le même</t>
@@ -1702,10 +1702,10 @@
   <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25"/>
@@ -1714,7 +1714,8 @@
     <col min="2" max="2" width="20.4166666666667" customWidth="1"/>
     <col min="3" max="3" width="49.6833333333333" customWidth="1"/>
     <col min="4" max="4" width="36.125" customWidth="1"/>
-    <col min="6" max="6" width="24.6833333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="51.875" customWidth="1"/>
     <col min="7" max="7" width="20.6833333333333" customWidth="1"/>
     <col min="8" max="8" width="15.6833333333333" customWidth="1"/>
     <col min="9" max="9" width="27.4166666666667" customWidth="1"/>
@@ -1884,7 +1885,7 @@
       <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1910,7 +1911,7 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -2231,7 +2232,7 @@
   <sheetPr/>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>

--- a/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_3_Resultats_2022_06122022.xlsx
+++ b/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_3_Resultats_2022_06122022.xlsx
@@ -135,10 +135,10 @@
     <t>5.Saisir le code barre</t>
   </si>
   <si>
-    <t>Exemple "FL22120001"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string-length(.)=10 </t>
+    <t>Exemple "FL2212001"</t>
+  </si>
+  <si>
+    <t>string-length(.)=9</t>
   </si>
   <si>
     <t>Paramétrer pour prendre 10 caractère. Doit avoir le format Pretas0001</t>
@@ -378,7 +378,7 @@
     <t>Saabin</t>
   </si>
   <si>
-    <t>Zanga</t>
+    <t>Peele</t>
   </si>
   <si>
     <t>Koulpissi</t>
@@ -426,7 +426,7 @@
     <t>SAA</t>
   </si>
   <si>
-    <t>ZAN</t>
+    <t>PEE</t>
   </si>
   <si>
     <t>KOU</t>
@@ -618,10 +618,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(BF - Dec 2022) Pré TAS FL - 3. Formulaire Résultats V1</t>
-  </si>
-  <si>
-    <t>bf_lf_pretas_3_Resultats_2022_06122022_v1</t>
+    <t>(BF - Dec 2022) Pré TAS FL - 3. Formulaire Résultats V2</t>
+  </si>
+  <si>
+    <t>bf_lf_pretas_3_Resultats_2022_06122022_v2</t>
   </si>
   <si>
     <t>French</t>
@@ -632,10 +632,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -687,6 +687,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -695,45 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,9 +740,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,9 +757,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,21 +777,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -807,8 +785,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -852,7 +852,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +924,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,37 +972,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,115 +1002,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,6 +1092,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1116,21 +1140,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1141,160 +1150,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1705,7 +1705,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25"/>
@@ -2233,9 +2233,9 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25" outlineLevelCol="4"/>
